--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_parallel.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_parallel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -715,7 +715,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -745,13 +745,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -810,11 +803,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -827,10 +820,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -839,7 +828,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -863,8 +852,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -911,18 +900,18 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1002,7 +991,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1729,7 +1718,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2484,7 +2473,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A6:B7 H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2580,7 +2569,7 @@
       <c r="C2" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J2" s="0" t="n">
@@ -2700,10 +2689,10 @@
       <c r="B8" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E8" s="0" t="s">
@@ -2723,10 +2712,10 @@
       <c r="B9" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E9" s="0" t="s">
@@ -2809,10 +2798,10 @@
       <c r="B13" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E13" s="0" t="s">
@@ -2835,10 +2824,10 @@
       <c r="B14" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E14" s="0" t="s">
@@ -2881,10 +2870,10 @@
       <c r="B16" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E16" s="0" t="s">
@@ -2907,10 +2896,10 @@
       <c r="B17" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E17" s="0" t="s">
@@ -2945,7 +2934,7 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W18" s="6"/>
+      <c r="W18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -2986,7 +2975,7 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W20" s="6"/>
+      <c r="W20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3007,7 +2996,7 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="6"/>
+      <c r="W21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3091,7 +3080,7 @@
       <c r="K25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W25" s="6"/>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -3112,7 +3101,7 @@
       <c r="K26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W26" s="6"/>
+      <c r="W26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -3161,7 +3150,7 @@
       <c r="B29" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D29" s="0" t="s">
@@ -3250,7 +3239,7 @@
       <c r="D33" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4" t="s">
         <v>218</v>
       </c>
       <c r="J33" s="0" t="n">
@@ -3529,7 +3518,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A6:B7 C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11456,7 +11445,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12058,7 +12047,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12639,7 +12628,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12926,7 +12915,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13212,8 +13201,8 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13262,7 +13251,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-5</v>
+        <v>-70</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -13799,7 +13788,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14398,7 +14387,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A6:B7 I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
